--- a/src/test/resources/test_data/briteerp_modules.xlsx
+++ b/src/test/resources/test_data/briteerp_modules.xlsx
@@ -13,34 +13,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Leave Type</t>
-  </si>
-  <si>
-    <t>Duration1</t>
-  </si>
-  <si>
-    <t>Duration2</t>
-  </si>
-  <si>
-    <t>Days</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>Contact_Name</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Job_Position</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Mike Brown</t>
   </si>
   <si>
     <r>
       <rPr>
+        <u val="single"/>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color indexed="14"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>account@cybertek.com</t>
+      <t>www.mikebrown.com</t>
     </r>
   </si>
   <si>
-    <t>Unpaid</t>
+    <t>QA Engineer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>mikebrown@example.com</t>
+    </r>
+  </si>
+  <si>
+    <t>New account 1</t>
+  </si>
+  <si>
+    <t>Harry Johnson</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>www.harryjohnson.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>harryjohnson@example.com</t>
+    </r>
+  </si>
+  <si>
+    <t>New account 2</t>
+  </si>
+  <si>
+    <t>Bob Taylor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>www.bobtaylor.com</t>
+    </r>
+  </si>
+  <si>
+    <t>SDET</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>bobtaylor@example.com</t>
+    </r>
+  </si>
+  <si>
+    <t>New account 3</t>
+  </si>
+  <si>
+    <t>Mary Miller</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>www.marymiller.com</t>
+    </r>
+  </si>
+  <si>
+    <t>QA Analyst</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>marymiller@example.com</t>
+    </r>
+  </si>
+  <si>
+    <t>New account 4</t>
+  </si>
+  <si>
+    <t>Eric Kriss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>www.erickriss.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>erickriss@example.com</t>
+    </r>
+  </si>
+  <si>
+    <t>New account 5</t>
   </si>
   <si>
     <t>Opportunity_Title</t>
@@ -92,11 +234,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="mm/dd/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -116,6 +257,12 @@
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -145,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -162,6 +309,51 @@
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -215,7 +407,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
       </left>
       <right/>
       <top style="thin">
@@ -236,17 +452,15 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right/>
       <top/>
@@ -261,22 +475,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -285,63 +490,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -361,33 +521,45 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -400,28 +572,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -446,6 +606,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -1511,18 +1672,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.8359" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3516" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1541,85 +1703,124 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
-        <v>42075.90875</v>
-      </c>
-      <c r="D2" s="5">
-        <v>42090.90875</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>9</v>
       </c>
       <c r="E2" s="6">
+        <v>231123333</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
+        <v>487563908</v>
+      </c>
+      <c r="F3" t="s" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="14.7" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6">
+        <v>765676567</v>
+      </c>
+      <c r="F4" t="s" s="5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>214324678</v>
+      </c>
+      <c r="F5" t="s" s="5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10">
+        <v>840531356</v>
+      </c>
+      <c r="F6" t="s" s="9">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D2" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="B3" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="D3" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="B4" r:id="rId5" location="" tooltip="" display=""/>
+    <hyperlink ref="D4" r:id="rId6" location="" tooltip="" display=""/>
+    <hyperlink ref="B5" r:id="rId7" location="" tooltip="" display=""/>
+    <hyperlink ref="D5" r:id="rId8" location="" tooltip="" display=""/>
+    <hyperlink ref="B6" r:id="rId9" location="" tooltip="" display=""/>
+    <hyperlink ref="D6" r:id="rId10" location="" tooltip="" display=""/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -1632,102 +1833,137 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.1719" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.3516" style="16" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="16" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.1719" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.3516" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="11" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>10</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="17">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="18">
-        <v>12</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="A2" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13">
         <v>2500</v>
       </c>
-      <c r="D2" t="s" s="20">
-        <v>13</v>
-      </c>
+      <c r="D2" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="17">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="A3" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13">
         <v>1000</v>
       </c>
-      <c r="D3" t="s" s="20">
-        <v>13</v>
-      </c>
+      <c r="D3" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="A4" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="13">
         <v>2010</v>
       </c>
-      <c r="D4" t="s" s="20">
-        <v>13</v>
-      </c>
+      <c r="D4" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="A5" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="C5" s="13">
         <v>1200</v>
       </c>
-      <c r="D5" t="s" s="20">
-        <v>13</v>
-      </c>
+      <c r="D5" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C6" s="22">
+      <c r="A6" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="C6" s="15">
         <v>1020</v>
       </c>
-      <c r="D6" t="s" s="23">
-        <v>13</v>
-      </c>
+      <c r="D6" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
